--- a/first_follow.xlsx
+++ b/first_follow.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danie\Documents\GitHub\tp_compiladores\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="480" yWindow="330" windowWidth="19875" windowHeight="7710"/>
   </bookViews>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="72">
   <si>
     <t>Símbolo</t>
   </si>
@@ -229,13 +234,16 @@
   </si>
   <si>
     <t>id, num, string, (, not, -</t>
+  </si>
+  <si>
+    <t>decl-stmt-list-tail</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -272,13 +280,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
-    <a:clrScheme name="Escritório">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -316,9 +332,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Escritório">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -350,9 +366,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -384,9 +401,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Escritório">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -559,21 +577,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.28515625" customWidth="1"/>
     <col min="3" max="3" width="33.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -584,7 +602,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -595,7 +613,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>54</v>
       </c>
@@ -606,7 +624,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>56</v>
       </c>
@@ -614,10 +632,10 @@
         <v>58</v>
       </c>
       <c r="C4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>57</v>
       </c>
@@ -628,196 +646,196 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>71</v>
+      </c>
+      <c r="B6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>2</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B7" t="s">
         <v>52</v>
       </c>
-      <c r="C6" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
+      <c r="C7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>3</v>
-      </c>
-      <c r="B7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C7" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="s">
-        <v>4</v>
       </c>
       <c r="B8" t="s">
         <v>47</v>
       </c>
       <c r="C8" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C9" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>6</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B11" t="s">
         <v>50</v>
       </c>
-      <c r="C10" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="s">
+      <c r="C11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>7</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B12" t="s">
         <v>48</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C12" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="s">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>8</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B13" t="s">
         <v>49</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C13" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>9</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B14" t="s">
         <v>48</v>
       </c>
-      <c r="C13" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
+      <c r="C14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>10</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B15" t="s">
         <v>47</v>
       </c>
-      <c r="C14" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
+      <c r="C15" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>11</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B16" t="s">
         <v>46</v>
       </c>
-      <c r="C15" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" t="s">
+      <c r="C16" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>12</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B17" t="s">
         <v>45</v>
       </c>
-      <c r="C16" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" t="s">
+      <c r="C17" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>13</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B18" t="s">
         <v>70</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C18" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
-      <c r="A18" t="s">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>14</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B19" t="s">
         <v>43</v>
       </c>
-      <c r="C18" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" t="s">
+      <c r="C19" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>15</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B20" t="s">
         <v>44</v>
       </c>
-      <c r="C19" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" t="s">
+      <c r="C20" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>16</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B21" t="s">
         <v>42</v>
       </c>
-      <c r="C20" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" t="s">
+      <c r="C21" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>17</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B22" t="s">
         <v>41</v>
       </c>
-      <c r="C21" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" t="s">
+      <c r="C22" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>18</v>
-      </c>
-      <c r="B22" t="s">
-        <v>70</v>
-      </c>
-      <c r="C22" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" t="s">
-        <v>19</v>
       </c>
       <c r="B23" t="s">
         <v>70</v>
@@ -826,151 +844,163 @@
         <v>64</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B24" t="s">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="C24" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>20</v>
+      </c>
+      <c r="B25" t="s">
+        <v>40</v>
+      </c>
+      <c r="C25" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>21</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B26" t="s">
         <v>70</v>
-      </c>
-      <c r="C25" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" t="s">
-        <v>22</v>
-      </c>
-      <c r="B26" t="s">
-        <v>39</v>
       </c>
       <c r="C26" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>22</v>
+      </c>
+      <c r="B27" t="s">
+        <v>39</v>
+      </c>
+      <c r="C27" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>23</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B28" t="s">
         <v>70</v>
-      </c>
-      <c r="C27" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" t="s">
-        <v>24</v>
-      </c>
-      <c r="B28" t="s">
-        <v>38</v>
       </c>
       <c r="C28" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>38</v>
+      </c>
+      <c r="C29" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>25</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B30" t="s">
         <v>70</v>
-      </c>
-      <c r="C29" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" t="s">
-        <v>26</v>
-      </c>
-      <c r="B30" t="s">
-        <v>69</v>
       </c>
       <c r="C30" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
+        <v>26</v>
+      </c>
+      <c r="B31" t="s">
+        <v>69</v>
+      </c>
+      <c r="C31" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>27</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B32" t="s">
         <v>36</v>
-      </c>
-      <c r="C31" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" t="s">
-        <v>28</v>
-      </c>
-      <c r="B32" t="s">
-        <v>35</v>
       </c>
       <c r="C32" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B33" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C33" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
+        <v>29</v>
+      </c>
+      <c r="B34" t="s">
+        <v>34</v>
+      </c>
+      <c r="C34" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>30</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B35" t="s">
         <v>68</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C35" t="s">
         <v>67</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/first_follow.xlsx
+++ b/first_follow.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="68">
   <si>
     <t>Símbolo</t>
   </si>
@@ -29,15 +29,6 @@
     <t>program</t>
   </si>
   <si>
-    <t>decl-list-tail</t>
-  </si>
-  <si>
-    <t>decl</t>
-  </si>
-  <si>
-    <t>ident-list</t>
-  </si>
-  <si>
     <t>ident-list-tail</t>
   </si>
   <si>
@@ -131,9 +122,6 @@
     <t>or, +, -</t>
   </si>
   <si>
-    <t>&gt;, =, &gt;=, &lt;. &lt;=, &lt;&gt;</t>
-  </si>
-  <si>
     <t>id, num, (, not, -</t>
   </si>
   <si>
@@ -143,9 +131,6 @@
     <t>or, +, -, λ</t>
   </si>
   <si>
-    <t>&gt;, =, &gt;=, &lt;. &lt;=, &lt;&gt;, λ</t>
-  </si>
-  <si>
     <t>write</t>
   </si>
   <si>
@@ -179,9 +164,6 @@
     <t>",", λ</t>
   </si>
   <si>
-    <t>id, λ</t>
-  </si>
-  <si>
     <t>$</t>
   </si>
   <si>
@@ -218,15 +200,6 @@
     <t>)</t>
   </si>
   <si>
-    <t>;, ), &gt;, =, &gt;=, &lt;. &lt;=, &lt;&gt;</t>
-  </si>
-  <si>
-    <t>or, +, -, ;, ), &gt;, =, &gt;=, &lt;. &lt;=, &lt;&gt;</t>
-  </si>
-  <si>
-    <t>*, /, and, or, +, -, ;, ), &gt;, =, &gt;=, &lt;. &lt;=, &lt;&gt;</t>
-  </si>
-  <si>
     <t>num, string</t>
   </si>
   <si>
@@ -237,6 +210,21 @@
   </si>
   <si>
     <t>decl-stmt-list-tail</t>
+  </si>
+  <si>
+    <t>&gt;, =, &gt;=, &lt;, &lt;=, &lt;&gt;, λ</t>
+  </si>
+  <si>
+    <t>;, ), &gt;, =, &gt;=, &lt;, &lt;=, &lt;&gt;</t>
+  </si>
+  <si>
+    <t>or, +, -, ;, ), &gt;, =, &gt;=, &lt;, &lt;=, &lt;&gt;</t>
+  </si>
+  <si>
+    <t>*, /, and, or, +, -, ;, ), &gt;, =, &gt;=, &lt;, &lt;=, &lt;&gt;</t>
+  </si>
+  <si>
+    <t>&gt;, =, &gt;=, &lt;, &lt;=, &lt;&gt;</t>
   </si>
 </sst>
 </file>
@@ -578,10 +566,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C35"/>
+  <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -596,10 +584,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -607,54 +595,54 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B3" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C3" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B4" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C4" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B5" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C5" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="B6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" t="s">
         <v>49</v>
-      </c>
-      <c r="C6" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -662,10 +650,10 @@
         <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C7" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -673,10 +661,10 @@
         <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C8" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -684,10 +672,10 @@
         <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C9" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -695,10 +683,10 @@
         <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="C10" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -706,10 +694,10 @@
         <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C11" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -717,10 +705,10 @@
         <v>7</v>
       </c>
       <c r="B12" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C12" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -728,10 +716,10 @@
         <v>8</v>
       </c>
       <c r="B13" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="C13" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -739,10 +727,10 @@
         <v>9</v>
       </c>
       <c r="B14" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C14" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -750,10 +738,10 @@
         <v>10</v>
       </c>
       <c r="B15" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="C15" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -761,10 +749,10 @@
         <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C16" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -772,10 +760,10 @@
         <v>12</v>
       </c>
       <c r="B17" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C17" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -783,10 +771,10 @@
         <v>13</v>
       </c>
       <c r="B18" t="s">
-        <v>70</v>
+        <v>37</v>
       </c>
       <c r="C18" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -794,10 +782,10 @@
         <v>14</v>
       </c>
       <c r="B19" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="C19" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -805,10 +793,10 @@
         <v>15</v>
       </c>
       <c r="B20" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="C20" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -816,10 +804,10 @@
         <v>16</v>
       </c>
       <c r="B21" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="C21" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -827,10 +815,10 @@
         <v>17</v>
       </c>
       <c r="B22" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="C22" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -838,7 +826,7 @@
         <v>18</v>
       </c>
       <c r="B23" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="C23" t="s">
         <v>64</v>
@@ -849,7 +837,7 @@
         <v>19</v>
       </c>
       <c r="B24" t="s">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="C24" t="s">
         <v>64</v>
@@ -860,10 +848,10 @@
         <v>20</v>
       </c>
       <c r="B25" t="s">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="C25" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -871,7 +859,7 @@
         <v>21</v>
       </c>
       <c r="B26" t="s">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="C26" t="s">
         <v>65</v>
@@ -882,10 +870,10 @@
         <v>22</v>
       </c>
       <c r="B27" t="s">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="C27" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -893,7 +881,7 @@
         <v>23</v>
       </c>
       <c r="B28" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="C28" t="s">
         <v>66</v>
@@ -904,10 +892,10 @@
         <v>24</v>
       </c>
       <c r="B29" t="s">
-        <v>38</v>
+        <v>67</v>
       </c>
       <c r="C29" t="s">
-        <v>66</v>
+        <v>33</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -915,10 +903,10 @@
         <v>25</v>
       </c>
       <c r="B30" t="s">
-        <v>70</v>
+        <v>32</v>
       </c>
       <c r="C30" t="s">
-        <v>67</v>
+        <v>33</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -926,10 +914,10 @@
         <v>26</v>
       </c>
       <c r="B31" t="s">
-        <v>69</v>
+        <v>31</v>
       </c>
       <c r="C31" t="s">
-        <v>67</v>
+        <v>33</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -937,43 +925,10 @@
         <v>27</v>
       </c>
       <c r="B32" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="C32" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>28</v>
-      </c>
-      <c r="B33" t="s">
-        <v>35</v>
-      </c>
-      <c r="C33" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>29</v>
-      </c>
-      <c r="B34" t="s">
-        <v>34</v>
-      </c>
-      <c r="C34" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>30</v>
-      </c>
-      <c r="B35" t="s">
-        <v>68</v>
-      </c>
-      <c r="C35" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/first_follow.xlsx
+++ b/first_follow.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danie\Documents\GitHub\tp_compiladores\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="480" yWindow="330" windowWidth="19875" windowHeight="7710"/>
   </bookViews>
@@ -200,15 +195,6 @@
     <t>)</t>
   </si>
   <si>
-    <t>num, string</t>
-  </si>
-  <si>
-    <t>id, num, string, (</t>
-  </si>
-  <si>
-    <t>id, num, string, (, not, -</t>
-  </si>
-  <si>
     <t>decl-stmt-list-tail</t>
   </si>
   <si>
@@ -225,13 +211,22 @@
   </si>
   <si>
     <t>&gt;, =, &gt;=, &lt;, &lt;=, &lt;&gt;</t>
+  </si>
+  <si>
+    <t>id, num, literal, (, not, -</t>
+  </si>
+  <si>
+    <t>id, num, literal, (</t>
+  </si>
+  <si>
+    <t>num, literal</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -282,7 +277,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Escritório">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -320,9 +315,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Escritório">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -354,10 +349,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -389,10 +383,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Escritório">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -565,21 +558,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection sqref="A1:C32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.28515625" customWidth="1"/>
     <col min="3" max="3" width="33.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -590,7 +583,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -601,7 +594,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>48</v>
       </c>
@@ -612,7 +605,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>50</v>
       </c>
@@ -623,7 +616,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>51</v>
       </c>
@@ -634,9 +627,9 @@
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B6" t="s">
         <v>44</v>
@@ -645,7 +638,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>2</v>
       </c>
@@ -656,7 +649,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>3</v>
       </c>
@@ -667,7 +660,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -678,7 +671,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -689,7 +682,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>6</v>
       </c>
@@ -700,7 +693,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -711,7 +704,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
         <v>8</v>
       </c>
@@ -722,7 +715,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
         <v>9</v>
       </c>
@@ -733,18 +726,18 @@
         <v>54</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
         <v>10</v>
       </c>
       <c r="B15" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C15" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3">
       <c r="A16" t="s">
         <v>11</v>
       </c>
@@ -755,7 +748,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
         <v>12</v>
       </c>
@@ -766,7 +759,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
         <v>13</v>
       </c>
@@ -777,7 +770,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
         <v>14</v>
       </c>
@@ -788,51 +781,51 @@
         <v>54</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
         <v>15</v>
       </c>
       <c r="B20" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C20" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
         <v>16</v>
       </c>
       <c r="B21" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C21" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
         <v>17</v>
       </c>
       <c r="B22" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C22" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3">
       <c r="A23" t="s">
         <v>18</v>
       </c>
       <c r="B23" t="s">
+        <v>65</v>
+      </c>
+      <c r="C23" t="s">
         <v>61</v>
       </c>
-      <c r="C23" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:3">
       <c r="A24" t="s">
         <v>19</v>
       </c>
@@ -840,21 +833,21 @@
         <v>35</v>
       </c>
       <c r="C24" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
       <c r="A25" t="s">
         <v>20</v>
       </c>
       <c r="B25" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C25" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
       <c r="A26" t="s">
         <v>21</v>
       </c>
@@ -862,43 +855,43 @@
         <v>34</v>
       </c>
       <c r="C26" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
       <c r="A27" t="s">
         <v>22</v>
       </c>
       <c r="B27" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C27" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
       <c r="A28" t="s">
         <v>23</v>
       </c>
       <c r="B28" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="C28" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
       <c r="A29" t="s">
         <v>24</v>
       </c>
       <c r="B29" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C29" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3">
       <c r="A30" t="s">
         <v>25</v>
       </c>
@@ -909,7 +902,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3">
       <c r="A31" t="s">
         <v>26</v>
       </c>
@@ -920,15 +913,15 @@
         <v>33</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3">
       <c r="A32" t="s">
         <v>27</v>
       </c>
       <c r="B32" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="C32" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -938,24 +931,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
